--- a/initial-counterfactual-results-all-results.xlsx
+++ b/initial-counterfactual-results-all-results.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dinouye/research/anchor-experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8403437F-91D2-3B41-903C-BFFD3F06703E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D2A13377-8A97-4542-B72B-800365580C51}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="30" r:id="rId3"/>
+    <pivotCache cacheId="58" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="679" uniqueCount="31">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="929" uniqueCount="28">
   <si>
     <t>Dataset</t>
   </si>
@@ -94,9 +94,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Sum of Value</t>
-  </si>
-  <si>
     <t>lime_high_precision</t>
   </si>
   <si>
@@ -112,22 +109,16 @@
     <t>Projected Data</t>
   </si>
   <si>
-    <t>Projected Data Total</t>
+    <t>counterfactual_naive</t>
   </si>
   <si>
-    <t>Raw Data</t>
-  </si>
-  <si>
-    <t>Raw Data Total</t>
-  </si>
-  <si>
-    <t>counterfactual_naive</t>
+    <t>Count of Value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -608,7 +599,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyNumberFormat="1"/>
@@ -617,9 +608,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -666,7 +654,55 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="17">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0%"/>
     </dxf>
@@ -1044,54 +1080,84 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="23"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent2"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="24"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent3"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="25"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent5"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="26"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent6"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="27"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -1105,11 +1171,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$3:$B$5</c:f>
+              <c:f>Sheet1!$B$4:$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Raw Data - lime_naive</c:v>
+                  <c:v>anchor</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1126,94 +1192,38 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$6:$A$33</c:f>
+              <c:f>Sheet1!$A$6:$A$15</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="6"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>adult</c:v>
+                    <c:v>Precision</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>lending</c:v>
+                    <c:v>Coverage</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>recidivism</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>adult</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>lending</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>recidivism</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>adult</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>lending</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>recidivism</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>adult</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>lending</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>recidivism</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>adult</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>lending</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>recidivism</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>adult</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>lending</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>recidivism</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
                     <c:v>Precision</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>Coverage</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="4">
                     <c:v>Precision</c:v>
                   </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Coverage</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Precision</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
+                  <c:pt idx="5">
                     <c:v>Coverage</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>logistic</c:v>
+                    <c:v>adult</c:v>
                   </c:pt>
-                  <c:pt idx="6">
-                    <c:v>nn</c:v>
+                  <c:pt idx="2">
+                    <c:v>lending</c:v>
                   </c:pt>
-                  <c:pt idx="12">
-                    <c:v>xgboost</c:v>
+                  <c:pt idx="4">
+                    <c:v>recidivism</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1221,18 +1231,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$B$33</c:f>
+              <c:f>Sheet1!$B$6:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.81</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.80200000000000005</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.76600000000000001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -1241,42 +1251,6 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.77900000000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.77300000000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.65700000000000003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.81</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.79900000000000004</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.71699999999999997</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1293,11 +1267,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$3:$C$5</c:f>
+              <c:f>Sheet1!$C$4:$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Raw Data - counterfactual_naive</c:v>
+                  <c:v>lime_naive</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1314,94 +1288,38 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$6:$A$33</c:f>
+              <c:f>Sheet1!$A$6:$A$15</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="6"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>adult</c:v>
+                    <c:v>Precision</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>lending</c:v>
+                    <c:v>Coverage</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>recidivism</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>adult</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>lending</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>recidivism</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>adult</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>lending</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>recidivism</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>adult</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>lending</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>recidivism</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>adult</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>lending</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>recidivism</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>adult</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>lending</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>recidivism</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
                     <c:v>Precision</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>Coverage</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="4">
                     <c:v>Precision</c:v>
                   </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Coverage</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Precision</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
+                  <c:pt idx="5">
                     <c:v>Coverage</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>logistic</c:v>
+                    <c:v>adult</c:v>
                   </c:pt>
-                  <c:pt idx="6">
-                    <c:v>nn</c:v>
+                  <c:pt idx="2">
+                    <c:v>lending</c:v>
                   </c:pt>
-                  <c:pt idx="12">
-                    <c:v>xgboost</c:v>
+                  <c:pt idx="4">
+                    <c:v>recidivism</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1409,21 +1327,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$6:$C$33</c:f>
+              <c:f>Sheet1!$C$6:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.566052</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.58614100000000002</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.58088099999999998</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.999363</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -1431,48 +1349,12 @@
                 <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.56287600000000004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.57965699999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.51530500000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.999363</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.57189199999999996</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.61208499999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.55410400000000004</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.999363</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F41B-334E-BC69-F80ECC57884D}"/>
+              <c16:uniqueId val="{00000007-7C73-CC4F-BD3E-48C5C609959D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1481,11 +1363,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$3:$D$5</c:f>
+              <c:f>Sheet1!$D$4:$D$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Raw Data - lime_high_precision</c:v>
+                  <c:v>counterfactual_naive</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1502,94 +1384,38 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$6:$A$33</c:f>
+              <c:f>Sheet1!$A$6:$A$15</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="6"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>adult</c:v>
+                    <c:v>Precision</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>lending</c:v>
+                    <c:v>Coverage</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>recidivism</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>adult</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>lending</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>recidivism</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>adult</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>lending</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>recidivism</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>adult</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>lending</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>recidivism</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>adult</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>lending</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>recidivism</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>adult</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>lending</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>recidivism</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
                     <c:v>Precision</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>Coverage</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="4">
                     <c:v>Precision</c:v>
                   </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Coverage</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Precision</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
+                  <c:pt idx="5">
                     <c:v>Coverage</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>logistic</c:v>
+                    <c:v>adult</c:v>
                   </c:pt>
-                  <c:pt idx="6">
-                    <c:v>nn</c:v>
+                  <c:pt idx="2">
+                    <c:v>lending</c:v>
                   </c:pt>
-                  <c:pt idx="12">
-                    <c:v>xgboost</c:v>
+                  <c:pt idx="4">
+                    <c:v>recidivism</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1597,70 +1423,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$6:$D$33</c:f>
+              <c:f>Sheet1!$D$6:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.98699999999999999</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.999</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.96599999999999997</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.184</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.122</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.22800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.98199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.97</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.93500000000000005</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.13500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.4000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.98599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.995</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.997</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.185</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9.0999999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.7999999999999999E-2</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F41B-334E-BC69-F80ECC57884D}"/>
+              <c16:uniqueId val="{00000008-7C73-CC4F-BD3E-48C5C609959D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1669,11 +1459,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$3:$E$5</c:f>
+              <c:f>Sheet1!$E$4:$E$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Raw Data - counterfactual_high_precision</c:v>
+                  <c:v>lime_high_precision</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1690,94 +1480,38 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$6:$A$33</c:f>
+              <c:f>Sheet1!$A$6:$A$15</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="6"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>adult</c:v>
+                    <c:v>Precision</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>lending</c:v>
+                    <c:v>Coverage</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>recidivism</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>adult</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>lending</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>recidivism</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>adult</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>lending</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>recidivism</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>adult</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>lending</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>recidivism</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>adult</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>lending</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>recidivism</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>adult</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>lending</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>recidivism</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
                     <c:v>Precision</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>Coverage</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="4">
                     <c:v>Precision</c:v>
                   </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Coverage</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Precision</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
+                  <c:pt idx="5">
                     <c:v>Coverage</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>logistic</c:v>
+                    <c:v>adult</c:v>
                   </c:pt>
-                  <c:pt idx="6">
-                    <c:v>nn</c:v>
+                  <c:pt idx="2">
+                    <c:v>lending</c:v>
                   </c:pt>
-                  <c:pt idx="12">
-                    <c:v>xgboost</c:v>
+                  <c:pt idx="4">
+                    <c:v>recidivism</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1785,70 +1519,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$6:$E$33</c:f>
+              <c:f>Sheet1!$E$6:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.87956999999999996</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91385499999999997</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.84423000000000004</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9615199999999998E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.11551400000000001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8779800000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.87148899999999996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.88783999999999996</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.80156300000000003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.7493800000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.6295000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.4925E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.87427600000000005</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.90844999999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.82261600000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.8804699999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.14327799999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.5058800000000001E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F41B-334E-BC69-F80ECC57884D}"/>
+              <c16:uniqueId val="{00000009-7C73-CC4F-BD3E-48C5C609959D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1857,11 +1555,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$3:$F$5</c:f>
+              <c:f>Sheet1!$F$4:$F$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Raw Data - anchor</c:v>
+                  <c:v>counterfactual_high_precision</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1878,94 +1576,38 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$6:$A$33</c:f>
+              <c:f>Sheet1!$A$6:$A$15</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="6"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>adult</c:v>
+                    <c:v>Precision</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>lending</c:v>
+                    <c:v>Coverage</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>recidivism</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>adult</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>lending</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>recidivism</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>adult</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>lending</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>recidivism</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>adult</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>lending</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>recidivism</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>adult</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>lending</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>recidivism</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>adult</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>lending</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>recidivism</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
                     <c:v>Precision</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>Coverage</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="4">
                     <c:v>Precision</c:v>
                   </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Coverage</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Precision</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
+                  <c:pt idx="5">
                     <c:v>Coverage</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>logistic</c:v>
+                    <c:v>adult</c:v>
                   </c:pt>
-                  <c:pt idx="6">
-                    <c:v>nn</c:v>
+                  <c:pt idx="2">
+                    <c:v>lending</c:v>
                   </c:pt>
-                  <c:pt idx="12">
-                    <c:v>xgboost</c:v>
+                  <c:pt idx="4">
+                    <c:v>recidivism</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1973,448 +1615,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$6:$F$33</c:f>
+              <c:f>Sheet1!$F$6:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.95799999999999996</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.997</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95899999999999996</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.106</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28599999999999998</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.6000000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.96499999999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.97299999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.92600000000000005</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.2E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.27300000000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.0999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.96199999999999997</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.99099999999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.95099999999999996</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9.8000000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.28399999999999997</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.9000000000000002E-2</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-F41B-334E-BC69-F80ECC57884D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$H$3:$H$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Projected Data - counterfactual_naive</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$6:$A$33</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="18"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>adult</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>lending</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>recidivism</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>adult</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>lending</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>recidivism</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>adult</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>lending</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>recidivism</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>adult</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>lending</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>recidivism</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>adult</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>lending</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>recidivism</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>adult</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>lending</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>recidivism</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Precision</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Coverage</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Precision</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Coverage</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Precision</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>Coverage</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>logistic</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>nn</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>xgboost</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$H$6:$H$33</c:f>
-              <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0.82701800000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.94283799999999995</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.76613900000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.999363</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.81569199999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.91645699999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.67721799999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.999363</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.83333199999999996</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.91722300000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.74932699999999997</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.999363</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-F41B-334E-BC69-F80ECC57884D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$I$3:$I$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Projected Data - counterfactual_high_precision</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60%"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$6:$A$33</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="18"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>adult</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>lending</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>recidivism</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>adult</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>lending</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>recidivism</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>adult</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>lending</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>recidivism</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>adult</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>lending</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>recidivism</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>adult</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>lending</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>recidivism</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>adult</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>lending</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>recidivism</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Precision</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Coverage</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Precision</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Coverage</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Precision</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>Coverage</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>logistic</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>nn</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>xgboost</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$I$6:$I$33</c:f>
-              <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0.97744299999999995</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.99732900000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.96223800000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.16789E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.129575</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.9577699999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.97398799999999996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.985734</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.94021299999999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.76475E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.0219300000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.4844499999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.97716899999999995</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.99235099999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.95447599999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.1289899999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.12818299999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.43657E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-F41B-334E-BC69-F80ECC57884D}"/>
+              <c16:uniqueId val="{0000000A-7C73-CC4F-BD3E-48C5C609959D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3228,9 +2456,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId1" refreshedBy="dinouye" refreshedDateIso="2018-05-18T14:28:31.65999979712069100" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="126">
+<pivotCacheDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="dinouye" refreshedDateIso="2018-05-22T13:35:52.84999972209334650" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="216" xr:uid="{FB2AD007-0DAE-8D49-B35D-0723D9A73D44}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:F127" sheet="initial-counterfactual-results"/>
+    <worksheetSource ref="A1:F181" sheet="initial-counterfactual-results"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Dataset" numFmtId="0">
@@ -3281,7 +2509,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" count="126">
+<pivotCacheRecords xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="216">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -4287,6 +3515,726 @@
     <x v="4"/>
     <x v="1"/>
     <n v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="0.97453100000000004"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="0.97498600000000002"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="0.97613700000000003"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="0.91417400000000004"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="0.864734"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="0.92080899999999999"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="0.99798900000000001"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="0.99051100000000003"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="0.97457000000000005"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="0.96482299999999999"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="0.92378899999999997"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="0.934446"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="0.92492700000000005"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="0.90417599999999998"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="0.932504"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="0.76125699999999996"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="0.70920000000000005"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="0.76237900000000003"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.93700000000000006"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.94299999999999995"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.90900000000000003"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.89900000000000002"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.89300000000000002"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.82699999999999996"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.996"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.99"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.97299999999999998"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.93600000000000005"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.92800000000000005"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.89300000000000002"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.80600000000000005"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.75800000000000001"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.66500000000000004"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.98"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.996"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.997"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.996"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.99399999999999999"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.97299999999999998"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.93700000000000006"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.94199999999999995"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.89100000000000001"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.999"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.996"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="0.436672"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="0.37625399999999998"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="0.40499600000000002"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="0.99967200000000001"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="0.99967200000000001"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="0.99967200000000001"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="0.81881999999999999"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="0.75503699999999996"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="0.82180699999999995"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="0.24815000000000001"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="0.12848799999999999"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="0.167988"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.76100000000000001"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.73499999999999999"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.61899999999999999"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.33600000000000002"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.33200000000000002"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.3"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.59599999999999997"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.54600000000000004"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.42099999999999999"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.30199999999999999"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="4.2000000000000003E-2"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="4.0000000000000001E-3"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.9"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.876"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.82899999999999996"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.374"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.34"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.30099999999999999"/>
     <x v="1"/>
     <x v="1"/>
   </r>
@@ -4294,8 +4242,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="A3:K33" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{67049B9E-EEA6-6840-892D-626FFA6A94AD}" name="PivotTable1" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="A4:G15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
       <items count="4">
@@ -4307,18 +4255,18 @@
     </pivotField>
     <pivotField axis="axisCol" showAll="0">
       <items count="6">
+        <item x="0"/>
         <item x="1"/>
         <item n="counterfactual_naive" x="4"/>
         <item n="lime_high_precision" x="2"/>
         <item x="3"/>
-        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="4">
-        <item x="0"/>
-        <item x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -4331,46 +4279,27 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisCol" showAll="0">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="3">
-        <item n="Raw Data" x="0"/>
+        <item n="Raw Data" h="1" x="0"/>
         <item n="Projected Data" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
   </pivotFields>
-  <rowFields count="3">
-    <field x="2"/>
+  <rowFields count="2">
+    <field x="0"/>
     <field x="4"/>
-    <field x="0"/>
   </rowFields>
-  <rowItems count="28">
+  <rowItems count="10">
     <i>
       <x/>
     </i>
     <i r="1">
       <x/>
     </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
     <i r="1">
       <x v="1"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
     </i>
     <i>
       <x v="1"/>
@@ -4378,26 +4307,8 @@
     <i r="1">
       <x/>
     </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
     <i r="1">
       <x v="1"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
     </i>
     <i>
       <x v="2"/>
@@ -4405,79 +4316,68 @@
     <i r="1">
       <x/>
     </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
     <i r="1">
       <x v="1"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colFields count="2">
-    <field x="5"/>
+  <colFields count="1">
     <field x="1"/>
   </colFields>
-  <colItems count="10">
+  <colItems count="6">
     <i>
-      <x/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i t="default">
       <x/>
     </i>
     <i>
       <x v="1"/>
-      <x v="1"/>
     </i>
-    <i r="1">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
       <x v="3"/>
     </i>
-    <i t="default">
-      <x v="1"/>
+    <i>
+      <x v="4"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </colItems>
+  <pageFields count="2">
+    <pageField fld="5" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
   <dataFields count="1">
-    <dataField name="Sum of Value" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Count of Value" fld="3" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="16">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="24">
+  <chartFormats count="25">
     <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1" selected="0">
@@ -4486,7 +4386,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="11" series="1">
+    <chartFormat chart="0" format="13" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1" selected="0">
@@ -4495,29 +4395,11 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="12" series="1">
+    <chartFormat chart="0" format="14" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1" selected="0">
             <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -4529,7 +4411,7 @@
             <x v="0"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="4"/>
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -4541,7 +4423,7 @@
             <x v="0"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="1"/>
+            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -4553,7 +4435,7 @@
             <x v="0"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="3"/>
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -4565,7 +4447,7 @@
             <x v="0"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="0"/>
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -4577,12 +4459,72 @@
             <x v="0"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="2"/>
+            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
     <chartFormat chart="0" format="20" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="21" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="23" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="24" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -4597,22 +4539,22 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="21" series="1">
+    <chartFormat chart="5" format="25" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="3"/>
+            <x v="4"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="1"/>
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="5" format="22" series="1">
+    <chartFormat chart="5" format="26" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -4627,7 +4569,37 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="5" format="23" series="1">
+    <chartFormat chart="5" format="27" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="28" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="22" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -4642,7 +4614,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="5" format="24" series="1">
+    <chartFormat chart="0" format="23" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -4657,7 +4629,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="5" format="25" series="1">
+    <chartFormat chart="0" format="24" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -4672,52 +4644,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="5" format="26" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="27" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="28" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="22" series="1">
+    <chartFormat chart="0" format="25" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -4732,22 +4659,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="23" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="24" series="1">
+    <chartFormat chart="0" format="26" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -4757,37 +4669,16 @@
             <x v="2"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="0"/>
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="25" series="1">
+    <chartFormat chart="0" format="27" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
+        <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="26" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -5101,28 +4992,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:K33"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="26.1640625" bestFit="1" customWidth="1"/>
@@ -5154,323 +5045,222 @@
     <col min="63" max="63" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1">
         <v>14</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
-        <v>5.3780000000000001</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4.732437</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3.4860000000000002</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2.8315640000000002</v>
-      </c>
-      <c r="F6" s="1">
-        <v>3.3719999999999999</v>
-      </c>
-      <c r="G6" s="1">
-        <v>19.800000999999998</v>
-      </c>
-      <c r="H6" s="1">
-        <v>5.5353579999999996</v>
-      </c>
-      <c r="I6" s="1">
-        <v>3.1478416</v>
-      </c>
-      <c r="J6" s="1">
-        <v>8.6831996</v>
-      </c>
-      <c r="K6" s="1">
-        <v>28.4832006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2.3780000000000001</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1.733074</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2.952</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2.6376550000000001</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2.9140000000000001</v>
-      </c>
-      <c r="G7" s="1">
-        <v>12.614729000000001</v>
-      </c>
-      <c r="H7" s="1">
-        <v>2.5359949999999998</v>
-      </c>
-      <c r="I7" s="1">
-        <v>2.9370099999999999</v>
-      </c>
-      <c r="J7" s="1">
-        <v>5.4730049999999997</v>
-      </c>
-      <c r="K7" s="1">
-        <v>18.087733999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>5</v>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B8" s="1">
-        <v>0.81</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>0.566052</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>0.98699999999999999</v>
+        <v>2</v>
       </c>
       <c r="E8" s="1">
-        <v>0.87956999999999996</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>0.95799999999999996</v>
+        <v>2</v>
       </c>
       <c r="G8" s="1">
-        <v>4.2006220000000001</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.82701800000000003</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.97744299999999995</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1.8044609999999999</v>
-      </c>
-      <c r="K8" s="1">
-        <v>6.0050829999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="1">
-        <v>0.80200000000000005</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>0.58614100000000002</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>0.999</v>
+        <v>4</v>
       </c>
       <c r="E9" s="1">
-        <v>0.91385499999999997</v>
+        <v>2</v>
       </c>
       <c r="F9" s="1">
-        <v>0.997</v>
+        <v>4</v>
       </c>
       <c r="G9" s="1">
-        <v>4.2979960000000004</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.94283799999999995</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.99732900000000002</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1.940167</v>
-      </c>
-      <c r="K9" s="1">
-        <v>6.2381630000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1">
-        <v>0.76600000000000001</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.58088099999999998</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.96599999999999997</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.84423000000000004</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.95899999999999996</v>
-      </c>
-      <c r="G10" s="1">
-        <v>4.1161110000000001</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.76613900000000001</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0.96223800000000004</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1.7283770000000001</v>
-      </c>
-      <c r="K10" s="1">
-        <v>5.8444880000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2.9993629999999998</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.53400000000000003</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.193909</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.45799999999999996</v>
-      </c>
-      <c r="G11" s="1">
-        <v>7.1852720000000003</v>
-      </c>
-      <c r="H11" s="1">
-        <v>2.9993629999999998</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.21083160000000001</v>
-      </c>
-      <c r="J11" s="1">
-        <v>3.2101945999999999</v>
-      </c>
-      <c r="K11" s="1">
-        <v>10.395466599999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1">
-        <v>0.999363</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1">
-        <v>0.184</v>
+        <v>4</v>
       </c>
       <c r="E12" s="1">
-        <v>4.9615199999999998E-2</v>
+        <v>2</v>
       </c>
       <c r="F12" s="1">
-        <v>0.106</v>
+        <v>4</v>
       </c>
       <c r="G12" s="1">
-        <v>2.3389781999999997</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.999363</v>
-      </c>
-      <c r="I12" s="1">
-        <v>5.16789E-2</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1.0510419</v>
-      </c>
-      <c r="K12" s="1">
-        <v>3.3900200999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -5479,33 +5269,21 @@
         <v>1</v>
       </c>
       <c r="D13" s="1">
-        <v>0.122</v>
+        <v>2</v>
       </c>
       <c r="E13" s="1">
-        <v>0.11551400000000001</v>
+        <v>1</v>
       </c>
       <c r="F13" s="1">
-        <v>0.28599999999999998</v>
+        <v>2</v>
       </c>
       <c r="G13" s="1">
-        <v>2.523514</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.129575</v>
-      </c>
-      <c r="J13" s="1">
-        <v>1.129575</v>
-      </c>
-      <c r="K13" s="1">
-        <v>3.653089</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -5514,693 +5292,39 @@
         <v>1</v>
       </c>
       <c r="D14" s="1">
-        <v>0.22800000000000001</v>
+        <v>2</v>
       </c>
       <c r="E14" s="1">
-        <v>2.8779800000000001E-2</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1">
-        <v>6.6000000000000003E-2</v>
+        <v>2</v>
       </c>
       <c r="G14" s="1">
-        <v>2.3227798000000002</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1">
-        <v>2.9577699999999998E-2</v>
-      </c>
-      <c r="J14" s="1">
-        <v>1.0295776999999999</v>
-      </c>
-      <c r="K14" s="1">
-        <v>3.3523575000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1">
-        <v>5.2089999999999996</v>
+        <v>6</v>
       </c>
       <c r="C15" s="1">
-        <v>4.6572009999999997</v>
+        <v>6</v>
       </c>
       <c r="D15" s="1">
-        <v>3.0880000000000001</v>
+        <v>12</v>
       </c>
       <c r="E15" s="1">
-        <v>2.6831733</v>
+        <v>6</v>
       </c>
       <c r="F15" s="1">
-        <v>3.21</v>
+        <v>12</v>
       </c>
       <c r="G15" s="1">
-        <v>18.847374300000002</v>
-      </c>
-      <c r="H15" s="1">
-        <v>5.4087300000000003</v>
-      </c>
-      <c r="I15" s="1">
-        <v>3.0362862499999999</v>
-      </c>
-      <c r="J15" s="1">
-        <v>8.4450162500000001</v>
-      </c>
-      <c r="K15" s="1">
-        <v>27.29239055</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="1">
-        <v>2.2090000000000001</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1.6578379999999999</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2.887</v>
-      </c>
-      <c r="E16" s="1">
-        <v>2.5608919999999999</v>
-      </c>
-      <c r="F16" s="1">
-        <v>2.8639999999999999</v>
-      </c>
-      <c r="G16" s="1">
-        <v>12.178730000000002</v>
-      </c>
-      <c r="H16" s="1">
-        <v>2.409367</v>
-      </c>
-      <c r="I16" s="1">
-        <v>2.8999350000000002</v>
-      </c>
-      <c r="J16" s="1">
-        <v>5.3093019999999997</v>
-      </c>
-      <c r="K16" s="1">
-        <v>17.488032</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0.77900000000000003</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.56287600000000004</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.87148899999999996</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.96499999999999997</v>
-      </c>
-      <c r="G17" s="1">
-        <v>4.1603650000000005</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0.81569199999999997</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0.97398799999999996</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1.7896799999999999</v>
-      </c>
-      <c r="K17" s="1">
-        <v>5.9500450000000011</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0.77300000000000002</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.57965699999999998</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.97</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.88783999999999996</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.97299999999999998</v>
-      </c>
-      <c r="G18" s="1">
-        <v>4.183497</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0.91645699999999997</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0.985734</v>
-      </c>
-      <c r="J18" s="1">
-        <v>1.902191</v>
-      </c>
-      <c r="K18" s="1">
-        <v>6.0856880000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0.65700000000000003</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.51530500000000001</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.93500000000000005</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.80156300000000003</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="G19" s="1">
-        <v>3.8348680000000002</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0.67721799999999999</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0.94021299999999997</v>
-      </c>
-      <c r="J19" s="1">
-        <v>1.6174309999999998</v>
-      </c>
-      <c r="K19" s="1">
-        <v>5.452299</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1">
-        <v>3</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2.9993629999999998</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0.1222813</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0.34600000000000003</v>
-      </c>
-      <c r="G20" s="1">
-        <v>6.6686442999999995</v>
-      </c>
-      <c r="H20" s="1">
-        <v>2.9993629999999998</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0.13635125000000001</v>
-      </c>
-      <c r="J20" s="1">
-        <v>3.1357142500000004</v>
-      </c>
-      <c r="K20" s="1">
-        <v>9.8043585499999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.999363</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="E21" s="1">
-        <v>3.7493800000000001E-2</v>
-      </c>
-      <c r="F21" s="1">
-        <v>6.2E-2</v>
-      </c>
-      <c r="G21" s="1">
-        <v>2.2338567999999999</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0.999363</v>
-      </c>
-      <c r="I21" s="1">
-        <v>3.76475E-2</v>
-      </c>
-      <c r="J21" s="1">
-        <v>1.0370105000000001</v>
-      </c>
-      <c r="K21" s="1">
-        <v>3.2708672999999995</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="E22" s="1">
-        <v>7.6295000000000002E-2</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="G22" s="1">
-        <v>2.4132950000000002</v>
-      </c>
-      <c r="H22" s="1">
-        <v>1</v>
-      </c>
-      <c r="I22" s="1">
-        <v>9.0219300000000002E-2</v>
-      </c>
-      <c r="J22" s="1">
-        <v>1.0902193</v>
-      </c>
-      <c r="K22" s="1">
-        <v>3.5035143</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1">
-        <v>2E-3</v>
-      </c>
-      <c r="E23" s="1">
-        <v>8.4925E-3</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="G23" s="1">
-        <v>2.0214924999999999</v>
-      </c>
-      <c r="H23" s="1">
-        <v>1</v>
-      </c>
-      <c r="I23" s="1">
-        <v>8.4844499999999993E-3</v>
-      </c>
-      <c r="J23" s="1">
-        <v>1.0084844500000001</v>
-      </c>
-      <c r="K23" s="1">
-        <v>3.02997695</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="1">
-        <v>5.3260000000000005</v>
-      </c>
-      <c r="C24" s="1">
-        <v>4.737444</v>
-      </c>
-      <c r="D24" s="1">
-        <v>3.2719999999999998</v>
-      </c>
-      <c r="E24" s="1">
-        <v>2.8124834999999999</v>
-      </c>
-      <c r="F24" s="1">
-        <v>3.3349999999999995</v>
-      </c>
-      <c r="G24" s="1">
-        <v>19.482927499999999</v>
-      </c>
-      <c r="H24" s="1">
-        <v>5.4992450000000002</v>
-      </c>
-      <c r="I24" s="1">
-        <v>3.1178345999999997</v>
-      </c>
-      <c r="J24" s="1">
-        <v>8.6170796000000003</v>
-      </c>
-      <c r="K24" s="1">
-        <v>28.100007099999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="1">
-        <v>2.3260000000000001</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1.7380810000000002</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2.9779999999999998</v>
-      </c>
-      <c r="E25" s="1">
-        <v>2.6053420000000003</v>
-      </c>
-      <c r="F25" s="1">
-        <v>2.9039999999999999</v>
-      </c>
-      <c r="G25" s="1">
-        <v>12.551423</v>
-      </c>
-      <c r="H25" s="1">
-        <v>2.4998819999999999</v>
-      </c>
-      <c r="I25" s="1">
-        <v>2.9239959999999998</v>
-      </c>
-      <c r="J25" s="1">
-        <v>5.4238780000000002</v>
-      </c>
-      <c r="K25" s="1">
-        <v>17.975300999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="1">
-        <v>0.81</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0.57189199999999996</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="E26" s="1">
-        <v>0.87427600000000005</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0.96199999999999997</v>
-      </c>
-      <c r="G26" s="1">
-        <v>4.2041680000000001</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0.83333199999999996</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0.97716899999999995</v>
-      </c>
-      <c r="J26" s="1">
-        <v>1.8105009999999999</v>
-      </c>
-      <c r="K26" s="1">
-        <v>6.0146689999999996</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="1">
-        <v>0.79900000000000004</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0.61208499999999999</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0.995</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0.90844999999999998</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="G27" s="1">
-        <v>4.3055349999999999</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0.91722300000000001</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0.99235099999999998</v>
-      </c>
-      <c r="J27" s="1">
-        <v>1.9095740000000001</v>
-      </c>
-      <c r="K27" s="1">
-        <v>6.215109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="1">
-        <v>0.71699999999999997</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0.55410400000000004</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0.997</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0.82261600000000001</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="G28" s="1">
-        <v>4.0417199999999998</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0.74932699999999997</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0.95447599999999999</v>
-      </c>
-      <c r="J28" s="1">
-        <v>1.703803</v>
-      </c>
-      <c r="K28" s="1">
-        <v>5.7455229999999995</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="1">
-        <v>3</v>
-      </c>
-      <c r="C29" s="1">
-        <v>2.9993629999999998</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0.29400000000000004</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0.20714150000000001</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="G29" s="1">
-        <v>6.9315044999999991</v>
-      </c>
-      <c r="H29" s="1">
-        <v>2.9993629999999998</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0.1938386</v>
-      </c>
-      <c r="J29" s="1">
-        <v>3.1932016000000001</v>
-      </c>
-      <c r="K29" s="1">
-        <v>10.124706099999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="1">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0.999363</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0.185</v>
-      </c>
-      <c r="E30" s="1">
-        <v>4.8804699999999999E-2</v>
-      </c>
-      <c r="F30" s="1">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="G30" s="1">
-        <v>2.3311676999999995</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0.999363</v>
-      </c>
-      <c r="I30" s="1">
-        <v>5.1289899999999999E-2</v>
-      </c>
-      <c r="J30" s="1">
-        <v>1.0506529</v>
-      </c>
-      <c r="K30" s="1">
-        <v>3.3818205999999997</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="1">
-        <v>1</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="E31" s="1">
-        <v>0.14327799999999999</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0.28399999999999997</v>
-      </c>
-      <c r="G31" s="1">
-        <v>2.518278</v>
-      </c>
-      <c r="H31" s="1">
-        <v>1</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0.12818299999999999</v>
-      </c>
-      <c r="J31" s="1">
-        <v>1.1281829999999999</v>
-      </c>
-      <c r="K31" s="1">
-        <v>3.646461</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="1">
-        <v>1</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1.5058800000000001E-2</v>
-      </c>
-      <c r="F32" s="1">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="G32" s="1">
-        <v>2.0820587999999995</v>
-      </c>
-      <c r="H32" s="1">
-        <v>1</v>
-      </c>
-      <c r="I32" s="1">
-        <v>1.43657E-2</v>
-      </c>
-      <c r="J32" s="1">
-        <v>1.0143656999999999</v>
-      </c>
-      <c r="K32" s="1">
-        <v>3.0964244999999995</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="1">
-        <v>15.913</v>
-      </c>
-      <c r="C33" s="1">
-        <v>14.127082000000001</v>
-      </c>
-      <c r="D33" s="1">
-        <v>9.8459999999999983</v>
-      </c>
-      <c r="E33" s="1">
-        <v>8.327220800000001</v>
-      </c>
-      <c r="F33" s="1">
-        <v>9.9170000000000016</v>
-      </c>
-      <c r="G33" s="1">
-        <v>58.130302800000003</v>
-      </c>
-      <c r="H33" s="1">
-        <v>16.443333000000003</v>
-      </c>
-      <c r="I33" s="1">
-        <v>9.3019624500000013</v>
-      </c>
-      <c r="J33" s="1">
-        <v>25.74529545</v>
-      </c>
-      <c r="K33" s="1">
-        <v>83.875598249999996</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -6210,11 +5334,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F127"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F181"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F127" sqref="F1:F127"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="B187" sqref="B187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6240,7 +5364,7 @@
         <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -6260,7 +5384,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -6280,7 +5404,7 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -6300,7 +5424,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -6320,7 +5444,7 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -6340,7 +5464,7 @@
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -6360,7 +5484,7 @@
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -6380,7 +5504,7 @@
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -6400,7 +5524,7 @@
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -6420,7 +5544,7 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -6440,7 +5564,7 @@
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -6460,7 +5584,7 @@
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -6480,7 +5604,7 @@
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -6500,7 +5624,7 @@
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -6520,7 +5644,7 @@
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -6540,7 +5664,7 @@
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -6560,7 +5684,7 @@
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -6580,7 +5704,7 @@
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -6600,7 +5724,7 @@
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -6620,7 +5744,7 @@
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -6640,7 +5764,7 @@
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -6660,7 +5784,7 @@
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -6680,7 +5804,7 @@
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -6700,7 +5824,7 @@
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -6720,7 +5844,7 @@
         <v>3</v>
       </c>
       <c r="F25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -6740,7 +5864,7 @@
         <v>3</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -6760,7 +5884,7 @@
         <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -6780,7 +5904,7 @@
         <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -6800,7 +5924,7 @@
         <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -6820,7 +5944,7 @@
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -6840,7 +5964,7 @@
         <v>3</v>
       </c>
       <c r="F31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -6860,7 +5984,7 @@
         <v>3</v>
       </c>
       <c r="F32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -6880,7 +6004,7 @@
         <v>3</v>
       </c>
       <c r="F33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -6900,7 +6024,7 @@
         <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -6920,7 +6044,7 @@
         <v>3</v>
       </c>
       <c r="F35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -6940,7 +6064,7 @@
         <v>3</v>
       </c>
       <c r="F36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -6960,7 +6084,7 @@
         <v>3</v>
       </c>
       <c r="F37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -6980,7 +6104,7 @@
         <v>3</v>
       </c>
       <c r="F38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -7000,7 +6124,7 @@
         <v>3</v>
       </c>
       <c r="F39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -7020,7 +6144,7 @@
         <v>3</v>
       </c>
       <c r="F40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -7040,7 +6164,7 @@
         <v>3</v>
       </c>
       <c r="F41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -7060,7 +6184,7 @@
         <v>3</v>
       </c>
       <c r="F42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -7080,7 +6204,7 @@
         <v>3</v>
       </c>
       <c r="F43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -7100,7 +6224,7 @@
         <v>3</v>
       </c>
       <c r="F44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -7120,7 +6244,7 @@
         <v>3</v>
       </c>
       <c r="F45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -7140,7 +6264,7 @@
         <v>3</v>
       </c>
       <c r="F46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -7160,7 +6284,7 @@
         <v>4</v>
       </c>
       <c r="F47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -7180,7 +6304,7 @@
         <v>4</v>
       </c>
       <c r="F48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -7200,7 +6324,7 @@
         <v>4</v>
       </c>
       <c r="F49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -7220,7 +6344,7 @@
         <v>4</v>
       </c>
       <c r="F50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -7240,7 +6364,7 @@
         <v>4</v>
       </c>
       <c r="F51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -7260,7 +6384,7 @@
         <v>4</v>
       </c>
       <c r="F52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -7280,7 +6404,7 @@
         <v>4</v>
       </c>
       <c r="F53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -7300,7 +6424,7 @@
         <v>4</v>
       </c>
       <c r="F54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -7320,7 +6444,7 @@
         <v>4</v>
       </c>
       <c r="F55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -7340,7 +6464,7 @@
         <v>4</v>
       </c>
       <c r="F56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -7360,7 +6484,7 @@
         <v>4</v>
       </c>
       <c r="F57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -7380,7 +6504,7 @@
         <v>4</v>
       </c>
       <c r="F58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -7400,7 +6524,7 @@
         <v>4</v>
       </c>
       <c r="F59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -7420,7 +6544,7 @@
         <v>4</v>
       </c>
       <c r="F60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -7440,7 +6564,7 @@
         <v>4</v>
       </c>
       <c r="F61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -7460,7 +6584,7 @@
         <v>4</v>
       </c>
       <c r="F62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -7480,7 +6604,7 @@
         <v>4</v>
       </c>
       <c r="F63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -7500,7 +6624,7 @@
         <v>4</v>
       </c>
       <c r="F64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -7520,7 +6644,7 @@
         <v>4</v>
       </c>
       <c r="F65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -7540,7 +6664,7 @@
         <v>4</v>
       </c>
       <c r="F66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -7560,7 +6684,7 @@
         <v>4</v>
       </c>
       <c r="F67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -7580,7 +6704,7 @@
         <v>4</v>
       </c>
       <c r="F68" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -7600,7 +6724,7 @@
         <v>4</v>
       </c>
       <c r="F69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -7620,7 +6744,7 @@
         <v>4</v>
       </c>
       <c r="F70" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -7640,7 +6764,7 @@
         <v>4</v>
       </c>
       <c r="F71" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -7660,7 +6784,7 @@
         <v>4</v>
       </c>
       <c r="F72" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -7680,7 +6804,7 @@
         <v>4</v>
       </c>
       <c r="F73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -7700,7 +6824,7 @@
         <v>4</v>
       </c>
       <c r="F74" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -7720,7 +6844,7 @@
         <v>4</v>
       </c>
       <c r="F75" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -7740,7 +6864,7 @@
         <v>4</v>
       </c>
       <c r="F76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -7760,7 +6884,7 @@
         <v>4</v>
       </c>
       <c r="F77" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -7780,7 +6904,7 @@
         <v>4</v>
       </c>
       <c r="F78" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -7800,7 +6924,7 @@
         <v>4</v>
       </c>
       <c r="F79" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -7820,7 +6944,7 @@
         <v>4</v>
       </c>
       <c r="F80" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -7840,7 +6964,7 @@
         <v>4</v>
       </c>
       <c r="F81" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -7860,7 +6984,7 @@
         <v>4</v>
       </c>
       <c r="F82" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -7880,7 +7004,7 @@
         <v>4</v>
       </c>
       <c r="F83" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -7900,7 +7024,7 @@
         <v>4</v>
       </c>
       <c r="F84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -7920,7 +7044,7 @@
         <v>4</v>
       </c>
       <c r="F85" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -7940,7 +7064,7 @@
         <v>4</v>
       </c>
       <c r="F86" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -7960,7 +7084,7 @@
         <v>4</v>
       </c>
       <c r="F87" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -7980,7 +7104,7 @@
         <v>4</v>
       </c>
       <c r="F88" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -8000,7 +7124,7 @@
         <v>4</v>
       </c>
       <c r="F89" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -8020,7 +7144,7 @@
         <v>4</v>
       </c>
       <c r="F90" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -8040,7 +7164,7 @@
         <v>4</v>
       </c>
       <c r="F91" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -8054,13 +7178,13 @@
         <v>7</v>
       </c>
       <c r="D92">
-        <v>0.97744299999999995</v>
+        <v>0.97453100000000004</v>
       </c>
       <c r="E92" t="s">
         <v>3</v>
       </c>
       <c r="F92" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -8074,13 +7198,13 @@
         <v>9</v>
       </c>
       <c r="D93">
-        <v>0.97398799999999996</v>
+        <v>0.97498600000000002</v>
       </c>
       <c r="E93" t="s">
         <v>3</v>
       </c>
       <c r="F93" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -8094,13 +7218,13 @@
         <v>8</v>
       </c>
       <c r="D94">
-        <v>0.97716899999999995</v>
+        <v>0.97613700000000003</v>
       </c>
       <c r="E94" t="s">
         <v>3</v>
       </c>
       <c r="F94" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -8114,13 +7238,13 @@
         <v>7</v>
       </c>
       <c r="D95">
-        <v>0.82701800000000003</v>
+        <v>0.91417400000000004</v>
       </c>
       <c r="E95" t="s">
         <v>3</v>
       </c>
       <c r="F95" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -8134,13 +7258,13 @@
         <v>9</v>
       </c>
       <c r="D96">
-        <v>0.81569199999999997</v>
+        <v>0.864734</v>
       </c>
       <c r="E96" t="s">
         <v>3</v>
       </c>
       <c r="F96" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -8154,13 +7278,13 @@
         <v>8</v>
       </c>
       <c r="D97">
-        <v>0.83333199999999996</v>
+        <v>0.92080899999999999</v>
       </c>
       <c r="E97" t="s">
         <v>3</v>
       </c>
       <c r="F97" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -8174,13 +7298,13 @@
         <v>7</v>
       </c>
       <c r="D98">
-        <v>0.99732900000000002</v>
+        <v>0.99798900000000001</v>
       </c>
       <c r="E98" t="s">
         <v>3</v>
       </c>
       <c r="F98" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -8194,13 +7318,13 @@
         <v>9</v>
       </c>
       <c r="D99">
-        <v>0.985734</v>
+        <v>0.99051100000000003</v>
       </c>
       <c r="E99" t="s">
         <v>3</v>
       </c>
       <c r="F99" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -8214,13 +7338,13 @@
         <v>8</v>
       </c>
       <c r="D100">
-        <v>0.99235099999999998</v>
+        <v>0.97457000000000005</v>
       </c>
       <c r="E100" t="s">
         <v>3</v>
       </c>
       <c r="F100" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -8234,13 +7358,13 @@
         <v>7</v>
       </c>
       <c r="D101">
-        <v>0.94283799999999995</v>
+        <v>0.96482299999999999</v>
       </c>
       <c r="E101" t="s">
         <v>3</v>
       </c>
       <c r="F101" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -8254,13 +7378,13 @@
         <v>9</v>
       </c>
       <c r="D102">
-        <v>0.91645699999999997</v>
+        <v>0.92378899999999997</v>
       </c>
       <c r="E102" t="s">
         <v>3</v>
       </c>
       <c r="F102" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
@@ -8274,13 +7398,13 @@
         <v>8</v>
       </c>
       <c r="D103">
-        <v>0.91722300000000001</v>
+        <v>0.934446</v>
       </c>
       <c r="E103" t="s">
         <v>3</v>
       </c>
       <c r="F103" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -8294,13 +7418,13 @@
         <v>7</v>
       </c>
       <c r="D104">
-        <v>0.96223800000000004</v>
+        <v>0.92492700000000005</v>
       </c>
       <c r="E104" t="s">
         <v>3</v>
       </c>
       <c r="F104" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -8314,13 +7438,13 @@
         <v>9</v>
       </c>
       <c r="D105">
-        <v>0.94021299999999997</v>
+        <v>0.90417599999999998</v>
       </c>
       <c r="E105" t="s">
         <v>3</v>
       </c>
       <c r="F105" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -8334,13 +7458,13 @@
         <v>8</v>
       </c>
       <c r="D106">
-        <v>0.95447599999999999</v>
+        <v>0.932504</v>
       </c>
       <c r="E106" t="s">
         <v>3</v>
       </c>
       <c r="F106" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -8354,13 +7478,13 @@
         <v>7</v>
       </c>
       <c r="D107">
-        <v>0.76613900000000001</v>
+        <v>0.76125699999999996</v>
       </c>
       <c r="E107" t="s">
         <v>3</v>
       </c>
       <c r="F107" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -8374,13 +7498,13 @@
         <v>9</v>
       </c>
       <c r="D108">
-        <v>0.67721799999999999</v>
+        <v>0.70920000000000005</v>
       </c>
       <c r="E108" t="s">
         <v>3</v>
       </c>
       <c r="F108" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
@@ -8394,13 +7518,13 @@
         <v>8</v>
       </c>
       <c r="D109">
-        <v>0.74932699999999997</v>
+        <v>0.76237900000000003</v>
       </c>
       <c r="E109" t="s">
         <v>3</v>
       </c>
       <c r="F109" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -8408,19 +7532,19 @@
         <v>5</v>
       </c>
       <c r="B110" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C110" t="s">
         <v>7</v>
       </c>
       <c r="D110">
-        <v>5.16789E-2</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="E110" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F110" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -8428,19 +7552,19 @@
         <v>5</v>
       </c>
       <c r="B111" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D111">
-        <v>3.76475E-2</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="E111" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F111" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -8448,19 +7572,19 @@
         <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112">
-        <v>5.1289899999999999E-2</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="E112" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F112" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -8468,19 +7592,19 @@
         <v>5</v>
       </c>
       <c r="B113" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C113" t="s">
         <v>7</v>
       </c>
       <c r="D113">
-        <v>0.999363</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="E113" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F113" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -8488,19 +7612,19 @@
         <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D114">
-        <v>0.999363</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="E114" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F114" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -8508,139 +7632,139 @@
         <v>5</v>
       </c>
       <c r="B115" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115">
-        <v>0.999363</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="E115" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F115" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C116" t="s">
         <v>7</v>
       </c>
       <c r="D116">
-        <v>0.129575</v>
+        <v>0.996</v>
       </c>
       <c r="E116" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F116" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B117" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D117">
-        <v>9.0219300000000002E-2</v>
+        <v>0.99</v>
       </c>
       <c r="E117" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F117" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B118" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118">
-        <v>0.12818299999999999</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="E118" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F118" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B119" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
         <v>7</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="E119" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F119" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B120" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="E120" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F120" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B121" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="E121" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F121" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -8648,19 +7772,19 @@
         <v>12</v>
       </c>
       <c r="B122" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C122" t="s">
         <v>7</v>
       </c>
       <c r="D122">
-        <v>2.9577699999999998E-2</v>
+        <v>0.80600000000000005</v>
       </c>
       <c r="E122" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F122" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -8668,19 +7792,19 @@
         <v>12</v>
       </c>
       <c r="B123" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D123">
-        <v>8.4844499999999993E-3</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="E123" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F123" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -8688,19 +7812,19 @@
         <v>12</v>
       </c>
       <c r="B124" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124">
-        <v>1.43657E-2</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="E124" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F124" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -8708,19 +7832,19 @@
         <v>12</v>
       </c>
       <c r="B125" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C125" t="s">
         <v>7</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="E125" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F125" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -8728,19 +7852,19 @@
         <v>12</v>
       </c>
       <c r="B126" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="E126" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F126" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -8748,19 +7872,1099 @@
         <v>12</v>
       </c>
       <c r="B127" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127">
+        <v>0.997</v>
+      </c>
+      <c r="E127" t="s">
+        <v>3</v>
+      </c>
+      <c r="F127" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>13</v>
+      </c>
+      <c r="B128" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128" t="s">
+        <v>7</v>
+      </c>
+      <c r="D128">
+        <v>0.996</v>
+      </c>
+      <c r="E128" t="s">
+        <v>3</v>
+      </c>
+      <c r="F128" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>13</v>
+      </c>
+      <c r="B129" t="s">
+        <v>6</v>
+      </c>
+      <c r="C129" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="E129" t="s">
+        <v>3</v>
+      </c>
+      <c r="F129" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>13</v>
+      </c>
+      <c r="B130" t="s">
+        <v>6</v>
+      </c>
+      <c r="C130" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="E130" t="s">
+        <v>3</v>
+      </c>
+      <c r="F130" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>13</v>
+      </c>
+      <c r="B131" t="s">
+        <v>10</v>
+      </c>
+      <c r="C131" t="s">
+        <v>7</v>
+      </c>
+      <c r="D131">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="E131" t="s">
+        <v>3</v>
+      </c>
+      <c r="F131" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>13</v>
+      </c>
+      <c r="B132" t="s">
+        <v>10</v>
+      </c>
+      <c r="C132" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="E132" t="s">
+        <v>3</v>
+      </c>
+      <c r="F132" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>13</v>
+      </c>
+      <c r="B133" t="s">
+        <v>10</v>
+      </c>
+      <c r="C133" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="E133" t="s">
+        <v>3</v>
+      </c>
+      <c r="F133" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>13</v>
+      </c>
+      <c r="B134" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" t="s">
+        <v>7</v>
+      </c>
+      <c r="D134">
+        <v>0.999</v>
+      </c>
+      <c r="E134" t="s">
+        <v>3</v>
+      </c>
+      <c r="F134" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>13</v>
+      </c>
+      <c r="B135" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="E135" t="s">
+        <v>3</v>
+      </c>
+      <c r="F135" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>13</v>
+      </c>
+      <c r="B136" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136">
+        <v>0.996</v>
+      </c>
+      <c r="E136" t="s">
+        <v>3</v>
+      </c>
+      <c r="F136" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137" t="s">
+        <v>14</v>
+      </c>
+      <c r="C137" t="s">
+        <v>7</v>
+      </c>
+      <c r="D137">
+        <v>0.436672</v>
+      </c>
+      <c r="E137" t="s">
+        <v>4</v>
+      </c>
+      <c r="F137" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138" t="s">
+        <v>14</v>
+      </c>
+      <c r="C138" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138">
+        <v>0.37625399999999998</v>
+      </c>
+      <c r="E138" t="s">
+        <v>4</v>
+      </c>
+      <c r="F138" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B139" t="s">
+        <v>14</v>
+      </c>
+      <c r="C139" t="s">
+        <v>8</v>
+      </c>
+      <c r="D139">
+        <v>0.40499600000000002</v>
+      </c>
+      <c r="E139" t="s">
+        <v>4</v>
+      </c>
+      <c r="F139" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B140" t="s">
         <v>15</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C140" t="s">
+        <v>7</v>
+      </c>
+      <c r="D140">
+        <v>0.99967200000000001</v>
+      </c>
+      <c r="E140" t="s">
+        <v>4</v>
+      </c>
+      <c r="F140" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B141" t="s">
+        <v>15</v>
+      </c>
+      <c r="C141" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141">
+        <v>0.99967200000000001</v>
+      </c>
+      <c r="E141" t="s">
+        <v>4</v>
+      </c>
+      <c r="F141" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B142" t="s">
+        <v>15</v>
+      </c>
+      <c r="C142" t="s">
         <v>8</v>
       </c>
-      <c r="D127">
+      <c r="D142">
+        <v>0.99967200000000001</v>
+      </c>
+      <c r="E142" t="s">
+        <v>4</v>
+      </c>
+      <c r="F142" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>13</v>
+      </c>
+      <c r="B143" t="s">
+        <v>14</v>
+      </c>
+      <c r="C143" t="s">
+        <v>7</v>
+      </c>
+      <c r="D143">
+        <v>0.81881999999999999</v>
+      </c>
+      <c r="E143" t="s">
+        <v>4</v>
+      </c>
+      <c r="F143" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>13</v>
+      </c>
+      <c r="B144" t="s">
+        <v>14</v>
+      </c>
+      <c r="C144" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144">
+        <v>0.75503699999999996</v>
+      </c>
+      <c r="E144" t="s">
+        <v>4</v>
+      </c>
+      <c r="F144" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>13</v>
+      </c>
+      <c r="B145" t="s">
+        <v>14</v>
+      </c>
+      <c r="C145" t="s">
+        <v>8</v>
+      </c>
+      <c r="D145">
+        <v>0.82180699999999995</v>
+      </c>
+      <c r="E145" t="s">
+        <v>4</v>
+      </c>
+      <c r="F145" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>13</v>
+      </c>
+      <c r="B146" t="s">
+        <v>15</v>
+      </c>
+      <c r="C146" t="s">
+        <v>7</v>
+      </c>
+      <c r="D146">
         <v>1</v>
       </c>
-      <c r="E127" t="s">
-        <v>4</v>
-      </c>
-      <c r="F127" t="s">
-        <v>25</v>
+      <c r="E146" t="s">
+        <v>4</v>
+      </c>
+      <c r="F146" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>13</v>
+      </c>
+      <c r="B147" t="s">
+        <v>15</v>
+      </c>
+      <c r="C147" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+      <c r="E147" t="s">
+        <v>4</v>
+      </c>
+      <c r="F147" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>13</v>
+      </c>
+      <c r="B148" t="s">
+        <v>15</v>
+      </c>
+      <c r="C148" t="s">
+        <v>8</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+      <c r="E148" t="s">
+        <v>4</v>
+      </c>
+      <c r="F148" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>12</v>
+      </c>
+      <c r="B149" t="s">
+        <v>14</v>
+      </c>
+      <c r="C149" t="s">
+        <v>7</v>
+      </c>
+      <c r="D149">
+        <v>0.24815000000000001</v>
+      </c>
+      <c r="E149" t="s">
+        <v>4</v>
+      </c>
+      <c r="F149" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>12</v>
+      </c>
+      <c r="B150" t="s">
+        <v>14</v>
+      </c>
+      <c r="C150" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150">
+        <v>0.12848799999999999</v>
+      </c>
+      <c r="E150" t="s">
+        <v>4</v>
+      </c>
+      <c r="F150" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>12</v>
+      </c>
+      <c r="B151" t="s">
+        <v>14</v>
+      </c>
+      <c r="C151" t="s">
+        <v>8</v>
+      </c>
+      <c r="D151">
+        <v>0.167988</v>
+      </c>
+      <c r="E151" t="s">
+        <v>4</v>
+      </c>
+      <c r="F151" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>12</v>
+      </c>
+      <c r="B152" t="s">
+        <v>15</v>
+      </c>
+      <c r="C152" t="s">
+        <v>7</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152" t="s">
+        <v>4</v>
+      </c>
+      <c r="F152" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>12</v>
+      </c>
+      <c r="B153" t="s">
+        <v>15</v>
+      </c>
+      <c r="C153" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153" t="s">
+        <v>4</v>
+      </c>
+      <c r="F153" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>12</v>
+      </c>
+      <c r="B154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C154" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+      <c r="E154" t="s">
+        <v>4</v>
+      </c>
+      <c r="F154" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>5</v>
+      </c>
+      <c r="B155" t="s">
+        <v>6</v>
+      </c>
+      <c r="C155" t="s">
+        <v>7</v>
+      </c>
+      <c r="D155">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="E155" t="s">
+        <v>4</v>
+      </c>
+      <c r="F155" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B156" t="s">
+        <v>6</v>
+      </c>
+      <c r="C156" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="E156" t="s">
+        <v>4</v>
+      </c>
+      <c r="F156" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>5</v>
+      </c>
+      <c r="B157" t="s">
+        <v>6</v>
+      </c>
+      <c r="C157" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="E157" t="s">
+        <v>4</v>
+      </c>
+      <c r="F157" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B158" t="s">
+        <v>10</v>
+      </c>
+      <c r="C158" t="s">
+        <v>7</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+      <c r="E158" t="s">
+        <v>4</v>
+      </c>
+      <c r="F158" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B159" t="s">
+        <v>10</v>
+      </c>
+      <c r="C159" t="s">
+        <v>8</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+      <c r="E159" t="s">
+        <v>4</v>
+      </c>
+      <c r="F159" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>5</v>
+      </c>
+      <c r="B160" t="s">
+        <v>10</v>
+      </c>
+      <c r="C160" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+      <c r="E160" t="s">
+        <v>4</v>
+      </c>
+      <c r="F160" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>5</v>
+      </c>
+      <c r="B161" t="s">
+        <v>11</v>
+      </c>
+      <c r="C161" t="s">
+        <v>7</v>
+      </c>
+      <c r="D161">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="E161" t="s">
+        <v>4</v>
+      </c>
+      <c r="F161" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>5</v>
+      </c>
+      <c r="B162" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162" t="s">
+        <v>8</v>
+      </c>
+      <c r="D162">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="E162" t="s">
+        <v>4</v>
+      </c>
+      <c r="F162" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>5</v>
+      </c>
+      <c r="B163" t="s">
+        <v>11</v>
+      </c>
+      <c r="C163" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163">
+        <v>0.3</v>
+      </c>
+      <c r="E163" t="s">
+        <v>4</v>
+      </c>
+      <c r="F163" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>12</v>
+      </c>
+      <c r="B164" t="s">
+        <v>6</v>
+      </c>
+      <c r="C164" t="s">
+        <v>7</v>
+      </c>
+      <c r="D164">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="E164" t="s">
+        <v>4</v>
+      </c>
+      <c r="F164" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>12</v>
+      </c>
+      <c r="B165" t="s">
+        <v>6</v>
+      </c>
+      <c r="C165" t="s">
+        <v>8</v>
+      </c>
+      <c r="D165">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="E165" t="s">
+        <v>4</v>
+      </c>
+      <c r="F165" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>12</v>
+      </c>
+      <c r="B166" t="s">
+        <v>6</v>
+      </c>
+      <c r="C166" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="E166" t="s">
+        <v>4</v>
+      </c>
+      <c r="F166" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>12</v>
+      </c>
+      <c r="B167" t="s">
+        <v>10</v>
+      </c>
+      <c r="C167" t="s">
+        <v>7</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="E167" t="s">
+        <v>4</v>
+      </c>
+      <c r="F167" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>12</v>
+      </c>
+      <c r="B168" t="s">
+        <v>10</v>
+      </c>
+      <c r="C168" t="s">
+        <v>8</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+      <c r="E168" t="s">
+        <v>4</v>
+      </c>
+      <c r="F168" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>12</v>
+      </c>
+      <c r="B169" t="s">
+        <v>10</v>
+      </c>
+      <c r="C169" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169">
+        <v>1</v>
+      </c>
+      <c r="E169" t="s">
+        <v>4</v>
+      </c>
+      <c r="F169" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>12</v>
+      </c>
+      <c r="B170" t="s">
+        <v>11</v>
+      </c>
+      <c r="C170" t="s">
+        <v>7</v>
+      </c>
+      <c r="D170">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="E170" t="s">
+        <v>4</v>
+      </c>
+      <c r="F170" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>12</v>
+      </c>
+      <c r="B171" t="s">
+        <v>11</v>
+      </c>
+      <c r="C171" t="s">
+        <v>8</v>
+      </c>
+      <c r="D171">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E171" t="s">
+        <v>4</v>
+      </c>
+      <c r="F171" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>12</v>
+      </c>
+      <c r="B172" t="s">
+        <v>11</v>
+      </c>
+      <c r="C172" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E172" t="s">
+        <v>4</v>
+      </c>
+      <c r="F172" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>13</v>
+      </c>
+      <c r="B173" t="s">
+        <v>6</v>
+      </c>
+      <c r="C173" t="s">
+        <v>7</v>
+      </c>
+      <c r="D173">
+        <v>0.9</v>
+      </c>
+      <c r="E173" t="s">
+        <v>4</v>
+      </c>
+      <c r="F173" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>13</v>
+      </c>
+      <c r="B174" t="s">
+        <v>6</v>
+      </c>
+      <c r="C174" t="s">
+        <v>8</v>
+      </c>
+      <c r="D174">
+        <v>0.876</v>
+      </c>
+      <c r="E174" t="s">
+        <v>4</v>
+      </c>
+      <c r="F174" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>13</v>
+      </c>
+      <c r="B175" t="s">
+        <v>6</v>
+      </c>
+      <c r="C175" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="E175" t="s">
+        <v>4</v>
+      </c>
+      <c r="F175" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>13</v>
+      </c>
+      <c r="B176" t="s">
+        <v>10</v>
+      </c>
+      <c r="C176" t="s">
+        <v>7</v>
+      </c>
+      <c r="D176">
+        <v>1</v>
+      </c>
+      <c r="E176" t="s">
+        <v>4</v>
+      </c>
+      <c r="F176" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>13</v>
+      </c>
+      <c r="B177" t="s">
+        <v>10</v>
+      </c>
+      <c r="C177" t="s">
+        <v>8</v>
+      </c>
+      <c r="D177">
+        <v>1</v>
+      </c>
+      <c r="E177" t="s">
+        <v>4</v>
+      </c>
+      <c r="F177" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>13</v>
+      </c>
+      <c r="B178" t="s">
+        <v>10</v>
+      </c>
+      <c r="C178" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178">
+        <v>1</v>
+      </c>
+      <c r="E178" t="s">
+        <v>4</v>
+      </c>
+      <c r="F178" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>13</v>
+      </c>
+      <c r="B179" t="s">
+        <v>11</v>
+      </c>
+      <c r="C179" t="s">
+        <v>7</v>
+      </c>
+      <c r="D179">
+        <v>0.374</v>
+      </c>
+      <c r="E179" t="s">
+        <v>4</v>
+      </c>
+      <c r="F179" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>13</v>
+      </c>
+      <c r="B180" t="s">
+        <v>11</v>
+      </c>
+      <c r="C180" t="s">
+        <v>8</v>
+      </c>
+      <c r="D180">
+        <v>0.34</v>
+      </c>
+      <c r="E180" t="s">
+        <v>4</v>
+      </c>
+      <c r="F180" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>13</v>
+      </c>
+      <c r="B181" t="s">
+        <v>11</v>
+      </c>
+      <c r="C181" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="E181" t="s">
+        <v>4</v>
+      </c>
+      <c r="F181" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
